--- a/weekly_attendance_3.xlsx
+++ b/weekly_attendance_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Student Number</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +502,9 @@
       <c r="E2">
         <v>7</v>
       </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -522,6 +525,9 @@
       <c r="E3">
         <v>7</v>
       </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
@@ -542,6 +548,9 @@
       <c r="E4">
         <v>7</v>
       </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
@@ -562,6 +571,9 @@
       <c r="E5">
         <v>7</v>
       </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
@@ -582,6 +594,9 @@
       <c r="E6">
         <v>7</v>
       </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
@@ -602,6 +617,9 @@
       <c r="E7">
         <v>7</v>
       </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
@@ -622,6 +640,9 @@
       <c r="E8">
         <v>7</v>
       </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
@@ -642,6 +663,9 @@
       <c r="E9">
         <v>7</v>
       </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
@@ -661,6 +685,9 @@
       </c>
       <c r="E10">
         <v>7</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
